--- a/Dataset/TaggatiDaLucio.xlsx
+++ b/Dataset/TaggatiDaLucio.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39393\Google Drive\Universita'\Tesi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Git\TheaterAnalysis\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="DatiDaTaggare" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="287">
   <si>
     <t>Polaritá positiva %</t>
   </si>
@@ -280,15 +280,7 @@
     <t>Ho visitato Roma molte volte, ma questa attrazione mi ha dato così tante informazioni sulla storia e sugli inizi di Roma che non avevo mai conosciuto prima. Un "must" per ogni fascia d'età, non importa quante volte sei stato in questa fantastica città prima. È solo un piccolo ingresso quindi fai attenzione a non perderlo!</t>
   </si>
   <si>
-    <t>Ci è piaciuto, semplice e informativo. Spero che puliscano il vetro su determinati monitor 3 d.
-Grande visut, comprato per $ 14 su Viator. com
-Ottimi posti per la pizza nelle vicinanze e negozi di pelletteria</t>
-  </si>
-  <si>
     <t>Abbiamo appena visitato Welcome to Rome. È stata davvero una bellissima esperienza. Abbiamo imparato molto sulla storia di Roma e visto immagini olografiche di molti antichi edifici romani come sono ora e come erano in origine. Vorrei solo che ci saremmo andati prima.</t>
-  </si>
-  <si>
-    <t>Questa è stata un'ottima introduzione a Roma. Se riesci a vederlo prima di visitare il Colosseo o il Forum, sarebbe utile. Questo non era molto affollato e il personale era gentile. Lo consiglierei a famiglie e a chiunque voglia visualizzare un po 'di aiuto</t>
   </si>
   <si>
     <t>Anche se questa attività può avere il secondo posto se trascorri solo 48 o 72 ore a Roma, ti consente di sostituire i principali monumenti di Roma dai loro aspetti attuali ai loro aspetti dell'antica Roma. Le spiegazioni sono chiare, la parte cinematografica è benvenuta in un soggiorno in cui si cammina molto😉</t>
@@ -936,6 +928,35 @@
   </si>
   <si>
     <t>Mi è piaciuto moltissimo, ottima acustica, ottima acustica e location, grandi professionisti e pezzi molto ben selezionati.</t>
+  </si>
+  <si>
+    <t>Duplicato del 25 
+Sono molto contento di averlo trovato su Trip Advisor prima di visitare Roma. Se sei interessato ad apprendere la storia di Roma velocemente e facilmente, vale la pena di $! Abbiamo volato da Dallas e siamo atterrati sabato mattina presto e volevamo prendersela comoda e riprenderci dal jet lag. Questa è stata l'attività perfetta per il primo giorno dopo aver fatto un pisolino dopo il volo. Ho apprezzato molto le esposizioni 3 D che mostravano le posizioni principali così come sono adesso e come erano prima. Non penso che avrei apprezzato o apprezzato i miei tour tanto nei prossimi giorni se non fossi venuto qui. Lo consiglio vivamente se stai andando alla cieca nella storia di Roma!</t>
+  </si>
+  <si>
+    <t>Duplicato 23
+Ci è piaciuto, semplice e informativo. Spero che puliscano il vetro su determinati monitor 3 d.
+Grande visut, comprato per $ 14 su Viator. com
+Ottimi posti per la pizza nelle vicinanze e negozi di pelletteria!</t>
+  </si>
+  <si>
+    <t>Duplicato 24
+È stato assolutamente incredibile e molto creativo nel modo in cui hanno portato la storia di Roma alla vita in 3 D! ! ! ! ! Merita una visita all'inizio della tua vacanza, in modo da avere una migliore comprensione della storia colorata di questa città.</t>
+  </si>
+  <si>
+    <t>Duplicato 26
+Questa è stata un'ottima introduzione a Roma. Se riesci a vederlo prima di visitare il Colosseo o il Forum, sarebbe utile. Questo non era molto affollato e il personale era gentile. Lo consiglierei a famiglie e a chiunque voglia visualizzare un po 'di aiuto.</t>
+  </si>
+  <si>
+    <t>Duplicato 27
+Una piccola gemma nascosta! Totalmente raccomandato!
+Probabilmente non andresti lì se passassi (sembra un piccolo negozio di souvenir dall'esterno). Ma non andare lì è un grosso errore! Che cos'è? "Esperienza multimediale"? " Cinema " ? "Spettacolo che mostra la storia di Roma"? Sì! Tutto. È difficile descrivere e molto meglio sperimentare te stesso.
+Per 12 euro si ottiene un paio di cuffie comode (sennheiser over-the-ear, non quelle a buon mercato in plastica monouso) e vengono introdotte in una serie di "stanze". In ognuno c'è un breve film di 5-10 minuti su un particolare edificio romano. Ma non è un normale schermo / film. Combina varie tecniche di visualizzazione per creare un'esperienza 3 D in cui i modelli (fisici reali) si mescolano con varie proiezioni (ciò che viene conservato dall'edificio fino ai giorni nostri, come appariva in passato, hiw era costruito e ricostruito, ecc.). Poi l'ultima stanza è "il cinema" dove c'è un film più lungo con proiezione a tutte le pareti e anche il "3 D floor" che rappresenta la mappa di Roma.
+Il contenuto è molto interessante, non è affatto noioso (e la storia può essere noiosa di sicuro) e vieni intrattenuto (e affascinato come tutto è messo insieme). La forma è molto moderna e con grande attenzione al dettaglio (non potevo fare a meno di sorridere quando i minuscoli romani iniziarono a scappare dalla pioggia).</t>
+  </si>
+  <si>
+    <t>Duplicato 28
+Piuttosto un museo interessante, che vale la pena visitare il primo giorno di esplorazione della Città Eterna. Il museo è costituito da diverse installazioni interattive che raccontano come apparivano le principali attrazioni di Roma, ora in rovina: i forum, il Colosseo e altri. Lì puoi anche guardare un cortometraggio sulla storia della città. Tutto è nella versione russa. Una visita al museo durerà non più di un'ora e non è stancante. Dopo aver visitato il museo, sarà molto più interessante ispezionare le rovine stesse. I biglietti possono essere acquistati attraverso il sito Web o sul posto.</t>
   </si>
 </sst>
 </file>
@@ -979,12 +1000,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -999,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1024,11 +1051,314 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1336,15 +1666,15 @@
   <dimension ref="A1:X278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="249.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
@@ -1457,3615 +1787,6666 @@
         <f>+IF(NOT(B2+C2=100%),"KO","OK")</f>
         <v>OK</v>
       </c>
+      <c r="E2" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
       <c r="M2" s="4" t="str">
         <f>+IF(NOT(SUM(E2:L2)=100%),"KO","OK")</f>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D66" si="0">+IF(NOT(B3+C3=100%),"KO","OK")</f>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" ref="M3:M66" si="1">+IF(NOT(SUM(E3:L3)=100%),"KO","OK")</f>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.1</v>
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
       <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.1</v>
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.05</v>
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.2</v>
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.3</v>
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B16" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.1</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.3</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.1</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="B23" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M23" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+        <v>OK</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M24" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+        <v>OK</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25" spans="1:24" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M25" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+        <v>OK</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M26" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+        <v>OK</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27" spans="1:24" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M27" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+        <v>OK</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28" spans="1:24" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M28" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B31" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.15</v>
+      </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
       <c r="D33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
       </c>
       <c r="M33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M34" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
       <c r="D35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.1</v>
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
       <c r="D36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M37" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+    </row>
+    <row r="38" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
       <c r="D38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
       </c>
       <c r="M38" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
       <c r="D39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
       </c>
       <c r="M39" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="B40" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D40" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M40" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M40" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+    </row>
+    <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
       <c r="D41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
       </c>
       <c r="M41" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
       <c r="D42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
       </c>
       <c r="M42" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
       <c r="D43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
       </c>
       <c r="M43" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
       <c r="D44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
       </c>
       <c r="M44" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M45" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M45" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+    </row>
+    <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
       <c r="D46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.1</v>
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
       <c r="D47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.1</v>
       </c>
       <c r="M47" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
       <c r="D48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0.1</v>
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KO</v>
       </c>
-      <c r="M49" s="4" t="str">
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M49" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
       <c r="D50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0.2</v>
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
       <c r="D51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0.2</v>
       </c>
       <c r="M51" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
       <c r="D52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0.1</v>
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
       <c r="D53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0.05</v>
       </c>
       <c r="M53" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
       <c r="D54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
       </c>
       <c r="M54" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M55" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J55" s="11">
+        <v>0</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+    </row>
+    <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
       <c r="D56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0.4</v>
       </c>
       <c r="M56" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
       <c r="D57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
       </c>
       <c r="M57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
       <c r="D58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
       </c>
       <c r="M58" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0</v>
       </c>
       <c r="M59" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M60" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J60" s="11">
+        <v>0</v>
+      </c>
+      <c r="K60" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L60" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M60" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
       <c r="D61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
       <c r="D62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
       </c>
       <c r="M62" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
       <c r="D63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B64" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
+        <v>OK</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0</v>
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="C65" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D65" s="11" t="str">
+        <f t="shared" ref="D65" si="2">+IF(NOT(B65+C65=100%),"KO","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F65" s="11">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11">
+        <v>0</v>
+      </c>
+      <c r="M65" s="11" t="str">
+        <f t="shared" ref="M65" si="3">+IF(NOT(SUM(E65:L65)=100%),"KO","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+    </row>
+    <row r="66" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="B66" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D66" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M65" s="4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0</v>
+      </c>
+      <c r="M66" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+        <v>OK</v>
+      </c>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+    </row>
+    <row r="67" spans="1:24" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" s="11">
+        <v>1</v>
+      </c>
+      <c r="C67" s="11">
+        <v>0</v>
+      </c>
+      <c r="D67" s="11" t="str">
+        <f t="shared" ref="D67:D130" si="4">+IF(NOT(B67+C67=100%),"KO","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="E67" s="11">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="J67" s="11">
+        <v>0</v>
+      </c>
+      <c r="K67" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="L67" s="11">
+        <v>0</v>
+      </c>
+      <c r="M67" s="11" t="str">
+        <f t="shared" ref="M67:M130" si="5">+IF(NOT(SUM(E67:L67)=100%),"KO","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+    </row>
+    <row r="68" spans="1:24" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" s="11">
+        <v>1</v>
+      </c>
+      <c r="C68" s="11">
+        <v>0</v>
+      </c>
+      <c r="D68" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E68" s="11">
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J68" s="11">
+        <v>0</v>
+      </c>
+      <c r="K68" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L68" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M68" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+    </row>
+    <row r="69" spans="1:24" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="11">
+        <v>1</v>
+      </c>
+      <c r="C69" s="11">
+        <v>0</v>
+      </c>
+      <c r="D69" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L69" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M69" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+    </row>
+    <row r="70" spans="1:24" s="13" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="11">
+        <v>1</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0</v>
+      </c>
+      <c r="D70" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K70" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L70" s="11">
+        <v>0</v>
+      </c>
+      <c r="M70" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+    </row>
+    <row r="71" spans="1:24" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>KO</v>
-      </c>
-      <c r="M66" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" s="4" t="str">
-        <f t="shared" ref="D67:D130" si="2">+IF(NOT(B67+C67=100%),"KO","OK")</f>
-        <v>KO</v>
-      </c>
-      <c r="M67" s="4" t="str">
-        <f t="shared" ref="M67:M130" si="3">+IF(NOT(SUM(E67:L67)=100%),"KO","OK")</f>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M68" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B71" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="C71" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D71" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E71" s="11">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L71" s="11">
+        <v>0</v>
+      </c>
+      <c r="M71" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+    </row>
+    <row r="72" spans="1:24" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M69" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M70" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B72" s="11">
+        <v>1</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0</v>
+      </c>
+      <c r="D72" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>1</v>
+      </c>
+      <c r="J72" s="11">
+        <v>0</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <v>0</v>
+      </c>
+      <c r="M72" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M71" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M72" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M73" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B75" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>0</v>
+      </c>
+      <c r="J75" s="11">
+        <v>0</v>
+      </c>
+      <c r="K75" s="11">
+        <v>0</v>
+      </c>
+      <c r="L75" s="11">
+        <v>0</v>
+      </c>
+      <c r="M75" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+    </row>
+    <row r="76" spans="1:24" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M74" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B76" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D76" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+    </row>
+    <row r="77" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M75" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M76" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M78" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M77" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L79" s="4">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M78" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M79" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="B81" s="11">
+        <v>1</v>
+      </c>
+      <c r="C81" s="11">
+        <v>0</v>
+      </c>
+      <c r="D81" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E81" s="11">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L81" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M81" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+    </row>
+    <row r="82" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M80" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0</v>
+      </c>
+      <c r="M82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M81" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M82" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B84" s="11">
+        <v>1</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0</v>
+      </c>
+      <c r="D84" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E84" s="11">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
+      </c>
+      <c r="G84" s="11">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>0</v>
+      </c>
+      <c r="J84" s="11">
+        <v>0</v>
+      </c>
+      <c r="K84" s="11">
+        <v>0</v>
+      </c>
+      <c r="L84" s="11">
+        <v>0</v>
+      </c>
+      <c r="M84" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+    </row>
+    <row r="85" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M83" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0</v>
+      </c>
+      <c r="D85" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M84" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0</v>
+      </c>
+      <c r="M86" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M85" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="B87" s="4">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M86" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="B88" s="4">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M88" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M87" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0</v>
+      </c>
+      <c r="M89" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B90" s="11">
+        <v>1</v>
+      </c>
+      <c r="C90" s="11">
+        <v>0</v>
+      </c>
+      <c r="D90" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="L90" s="11">
+        <v>0</v>
+      </c>
+      <c r="M90" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+    </row>
+    <row r="91" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M88" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="D91" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M91" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M89" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D90" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M90" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="D92" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M92" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M91" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="D93" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M93" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M92" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="D94" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M94" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D93" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M93" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="D95" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M95" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D94" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M94" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M95" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D96" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M96" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D97" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M97" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M98" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M99" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M98" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="D100" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M100" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M99" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="D101" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M101" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D100" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M100" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D101" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M101" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D102" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M102" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D103" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M103" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D104" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M104" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D105" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M105" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M106" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M107" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D106" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M106" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M107" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D108" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M108" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D109" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M109" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D110" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M110" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D111" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M111" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M112" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M113" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D112" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M112" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="D114" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M114" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M113" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D114" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M114" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D115" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M115" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D116" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M116" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D117" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M117" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D118" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M118" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D119" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M119" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D120" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M120" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D121" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M121" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M122" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M123" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M122" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="D124" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>KO</v>
+      </c>
+      <c r="M124" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M123" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D124" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KO</v>
-      </c>
-      <c r="M124" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D125" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M125" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D126" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M126" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D127" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M127" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D128" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M128" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D129" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M129" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>KO</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D130" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>KO</v>
       </c>
       <c r="M130" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D131" s="4" t="str">
-        <f t="shared" ref="D131:D194" si="4">+IF(NOT(B131+C131=100%),"KO","OK")</f>
+        <f t="shared" ref="D131:D194" si="6">+IF(NOT(B131+C131=100%),"KO","OK")</f>
         <v>KO</v>
       </c>
       <c r="M131" s="4" t="str">
-        <f t="shared" ref="M131:M194" si="5">+IF(NOT(SUM(E131:L131)=100%),"KO","OK")</f>
+        <f t="shared" ref="M131:M194" si="7">+IF(NOT(SUM(E131:L131)=100%),"KO","OK")</f>
         <v>KO</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D132" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M132" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D133" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M133" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D134" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M134" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D135" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M135" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D136" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M136" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D137" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M137" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D138" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M138" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D139" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M139" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D140" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M140" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D141" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M141" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D142" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M142" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D143" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M143" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M144" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M145" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D144" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M144" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D145" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M145" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D146" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M146" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D147" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M147" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D148" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M148" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D149" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M149" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D150" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M150" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D149" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M149" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D150" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M150" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D151" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M151" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D152" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M152" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D153" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M153" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D154" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M154" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D155" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M155" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D156" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M156" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D157" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M157" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D158" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M158" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D159" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M159" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D160" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M160" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D161" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M161" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D162" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M162" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D163" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M163" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D164" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M164" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D165" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M165" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M166" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D167" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M167" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D166" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M166" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D167" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M167" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D168" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M168" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D169" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M169" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D170" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M170" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M171" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D172" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M172" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D171" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M171" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="D173" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M173" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D172" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M172" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D173" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M173" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="D174" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M174" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D175" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M175" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D176" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M176" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D177" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M177" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D178" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M178" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D179" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M179" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D180" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M180" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D181" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M181" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D182" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M182" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D183" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M183" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D184" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M184" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D185" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M185" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D184" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M184" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D185" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M185" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="D186" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M186" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D187" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M187" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D188" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M188" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D189" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M189" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D190" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M190" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D191" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>KO</v>
+      </c>
+      <c r="M191" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D190" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M190" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D191" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>KO</v>
-      </c>
-      <c r="M191" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="D192" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M192" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D193" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M193" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KO</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D194" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KO</v>
       </c>
       <c r="M194" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D195" s="4" t="str">
-        <f t="shared" ref="D195:D258" si="6">+IF(NOT(B195+C195=100%),"KO","OK")</f>
+        <f t="shared" ref="D195:D258" si="8">+IF(NOT(B195+C195=100%),"KO","OK")</f>
         <v>KO</v>
       </c>
       <c r="M195" s="4" t="str">
-        <f t="shared" ref="M195:M258" si="7">+IF(NOT(SUM(E195:L195)=100%),"KO","OK")</f>
+        <f t="shared" ref="M195:M258" si="9">+IF(NOT(SUM(E195:L195)=100%),"KO","OK")</f>
         <v>KO</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D196" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M196" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D197" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M197" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D196" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M196" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D197" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M197" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="D198" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M198" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D199" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M199" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D200" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M200" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D201" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M201" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D202" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M202" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D203" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M203" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D204" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M204" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D205" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M205" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D206" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M206" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D207" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M207" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D208" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M208" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D209" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M209" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D208" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M208" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D209" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M209" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="D210" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M210" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D211" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M211" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D212" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M212" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D213" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M213" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D214" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M214" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D215" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M215" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D216" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M216" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D217" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M217" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D218" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M218" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D219" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M219" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D220" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M220" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D221" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M221" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D222" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M222" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D223" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M223" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D224" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M224" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D225" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M225" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D226" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M226" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D225" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M225" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D226" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M226" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="D227" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M227" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D228" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M228" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D229" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M229" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D230" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M230" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D231" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M231" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D232" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M232" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D233" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M233" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D234" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M234" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D235" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M235" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D236" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M236" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D237" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M237" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D235" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M235" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
+      <c r="D238" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M238" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D236" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M236" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D237" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M237" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D238" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M238" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="D239" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M239" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D240" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M240" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D241" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M241" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D242" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M242" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D243" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M243" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D244" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M244" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D245" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M245" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D246" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M246" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D247" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M247" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D248" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M248" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D249" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M249" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D250" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M250" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D249" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M249" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
+      <c r="D251" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M251" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D250" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M250" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D251" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M251" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="D252" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M252" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D253" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M253" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D254" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M254" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D255" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M255" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D256" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>KO</v>
+      </c>
+      <c r="M256" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D255" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M255" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D256" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>KO</v>
-      </c>
-      <c r="M256" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D257" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M257" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>KO</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D258" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>KO</v>
       </c>
       <c r="M258" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D259" s="4" t="str">
-        <f t="shared" ref="D259:D278" si="8">+IF(NOT(B259+C259=100%),"KO","OK")</f>
+        <f t="shared" ref="D259:D278" si="10">+IF(NOT(B259+C259=100%),"KO","OK")</f>
         <v>KO</v>
       </c>
       <c r="M259" s="4" t="str">
-        <f t="shared" ref="M259:M278" si="9">+IF(NOT(SUM(E259:L259)=100%),"KO","OK")</f>
+        <f t="shared" ref="M259:M278" si="11">+IF(NOT(SUM(E259:L259)=100%),"KO","OK")</f>
         <v>KO</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D260" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>KO</v>
       </c>
       <c r="M260" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>KO</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D261" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>KO</v>
       </c>
       <c r="M261" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D262" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>KO</v>
       </c>
       <c r="M262" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>KO</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D263" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M263" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D264" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M264" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D263" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M263" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
+      <c r="D265" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M265" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D264" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M264" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
+      <c r="D266" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M266" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D265" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M265" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
+      <c r="D267" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M267" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D266" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M266" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D267" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M267" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="D268" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>KO</v>
       </c>
       <c r="M268" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>KO</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D269" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M269" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D270" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M270" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D269" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M269" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
+      <c r="D271" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M271" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D270" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M270" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
+      <c r="D272" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M272" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D271" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M271" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
+      <c r="D273" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M273" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D272" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M272" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D273" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M273" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="D274" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>KO</v>
       </c>
       <c r="M274" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>KO</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D275" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M275" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D276" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>KO</v>
+      </c>
+      <c r="M276" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D275" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M275" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D276" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>KO</v>
-      </c>
-      <c r="M276" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>KO</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="D277" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>KO</v>
       </c>
       <c r="M277" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>KO</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D278" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>KO</v>
       </c>
       <c r="M278" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>KO</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="D2:D64 D66:D67 D71:D89 D91:D1048576">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="M2:M64 M66:M67 M71:M89 M91:M1048576">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A64 A71:A89 A66:A67 A91:A1048576">
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M65">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M69">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M70">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M90">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
